--- a/biology/Zoologie/Callithomia_alexirrhoe/Callithomia_alexirrhoe.xlsx
+++ b/biology/Zoologie/Callithomia_alexirrhoe/Callithomia_alexirrhoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callithomia alexirrhoe est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Callithomia.
 </t>
@@ -511,83 +523,93 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callithomia alexirrhoe a été décrit par Henry Walter Bates en 1862[1].
-Noms vernaculaires
-Callithomia alexirrhoe se nomme Alex's Clearwing en anglais[2].
-Sous-espèces
-Callithomia alexirrhoe alexirrhoe; présent en Colombie et au Brésil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia alexirrhoe a été décrit par Henry Walter Bates en 1862.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callithomia_alexirrhoe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_alexirrhoe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia alexirrhoe se nomme Alex's Clearwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callithomia_alexirrhoe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_alexirrhoe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Callithomia alexirrhoe alexirrhoe; présent en Colombie et au Brésil.
 Callithomia alexirrhoe butes Godman &amp; Salvin, 1898; présent au Pérou.
-Callithomia alexirrhoe bathsheba Brévignon, 2007; présent en Guyane[3].
+Callithomia alexirrhoe bathsheba Brévignon, 2007; présent en Guyane.
 Callithomia alexirrhoe hydra C. &amp; R. Felder, 1865; présent au Venezuela
 Callithomia alexirrhoe megaleas Godman &amp; Salvin, 1898; présent à Panama et au Costa Rica.
 Callithomia alexirrhoe panamensis Godman &amp; Salvin, 1878; présent à Panama
 Callithomia alexirrhoe schulzi Haensch, 1905; présent au Pérou et au Brésil.
 Callithomia alexirrhoe thornax Bates, 1862; présent au Pérou et au Brésil.
-Callithomia alexirrhoe zeuxippe Bates, 1862; présent au Brésil, au Surinam en Guyana et en Guyane[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Callithomia_alexirrhoe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callithomia_alexirrhoe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callithomia lenea est un papillon aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Sur le dessus les ailes sont de couleur orange marron et jaune avec les ailes antérieures à aire basale orange et le reste de l'aile marron taché de jaune et les ailes postérieures orange avec une large bordure marron du bord externe. 
-Le revers est semblable avec au bord externe des ailes postérieures une ligne submarginale de points blancs.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callithomia_alexirrhoe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callithomia_alexirrhoe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+Callithomia alexirrhoe zeuxippe Bates, 1862; présent au Brésil, au Surinam en Guyana et en Guyane.</t>
         </is>
       </c>
     </row>
@@ -612,15 +634,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia lenea est un papillon aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Sur le dessus les ailes sont de couleur orange marron et jaune avec les ailes antérieures à aire basale orange et le reste de l'aile marron taché de jaune et les ailes postérieures orange avec une large bordure marron du bord externe. 
+Le revers est semblable avec au bord externe des ailes postérieures une ligne submarginale de points blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callithomia_alexirrhoe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_alexirrhoe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callithomia alexirrhoe est présent  à Panama, au Costa Rica, en Colombie, au Venezuela, au Pérou, au Brésil, au Surinam et en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callithomia alexirrhoe est présent  à Panama, au Costa Rica, en Colombie, au Venezuela, au Pérou, au Brésil, au Surinam et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callithomia_alexirrhoe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callithomia_alexirrhoe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Callithomia alexirrhoe, sur Wikimedia CommonsCallithomia alexirrhoe, sur Wikispecies
 </t>
